--- a/ImportFunctions-Example.xlsx
+++ b/ImportFunctions-Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Excel-DNA\ImportFunctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0215CD9F-B7E2-48D1-9B38-5734295105AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5786C4FD-75D0-4853-87C1-69BC09D24E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="3285" windowWidth="19905" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="2340" windowWidth="19905" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lins" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,7 @@
   </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -511,174 +509,384 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="str" cm="1">
-        <f t="array" ref="B10">_xll.ImportHtml(B2,"table",1)</f>
-        <v>Error: Table not found</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <f t="array" ref="B10:F30">_xll.ImportHtml(B2,"table",1)</f>
+        <v xml:space="preserve">Nombre del centro
+    Ordenar descendente
+</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>Dependencia</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>Subtipo de centro</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>Municipio</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>Provincia</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Albaycín          </v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Albayda La Cruz          </v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Albolote          </v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <v xml:space="preserve">Albolote          </v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Albuñol          </v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Sur de Granada          </v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v xml:space="preserve">Albuñol          </v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Alfacar          </v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <v xml:space="preserve">Alfacar          </v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Alhama de Granada          </v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <v xml:space="preserve">Alhama de Granada          </v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Almanjáyar          </v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Almuñécar          </v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Sur de Granada          </v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <v xml:space="preserve">Almuñécar          </v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Alquife          </v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Nordeste Granada          </v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <v xml:space="preserve">Alquife          </v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Armilla          </v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v xml:space="preserve">Armilla          </v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Atarfe          </v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <v xml:space="preserve">Atarfe          </v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Baza          </v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Nordeste Granada          </v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v xml:space="preserve">Baza          </v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Benamaurel          </v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Nordeste Granada          </v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v xml:space="preserve">Benamaurel          </v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Bola de Oro          </v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Cádiar          </v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Sur de Granada          </v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <v xml:space="preserve">Cádiar          </v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Cartuja          </v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Casería de Montijo          </v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <v xml:space="preserve">Distrito Granada          </v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Castell de Ferro          </v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v xml:space="preserve">Área de Gestión Sanitaria Sur de Granada          </v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <v xml:space="preserve">Gualchos          </v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Cenes de la Vega          </v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <v xml:space="preserve">Cenes de la Vega          </v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="4" t="str">
+        <v xml:space="preserve">Centro de salud Churriana de la Vega          </v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v xml:space="preserve">Distrito Metropolitano de Granada          </v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <v xml:space="preserve">Centro de salud          </v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <v xml:space="preserve">Churriana de la Vega          </v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <v xml:space="preserve">Granada          </v>
+      </c>
       <c r="G30" s="5"/>
     </row>
     <row r="32" spans="1:12">
@@ -701,135 +909,215 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="8" t="str" cm="1">
-        <f t="array" ref="B33">_xll.ImportXml($B$2,$B$5)</f>
-        <v xml:space="preserve">_x000D_
-      csv_x000D_
-      </v>
+        <f t="array" ref="B33:B74">_xll.ImportXml($B$2,$B$5)</f>
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/csv?term_node_tid_depth_1=11267&amp;title=&amp;term_node_tid_depth=706&amp;_format=csv</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/xls?term_node_tid_depth_1=11267&amp;title=&amp;term_node_tid_depth=706&amp;_format=xls</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23806</v>
+      </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/25624</v>
+      </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24857</v>
+      </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24854</v>
+      </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1834</v>
+      </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24845</v>
+      </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="8"/>
+      <c r="B45" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24841</v>
+      </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="8"/>
+      <c r="B47" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23807</v>
+      </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="8"/>
+      <c r="B49" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24423</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="8"/>
+      <c r="B50" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1834</v>
+      </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/25351</v>
+      </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1840</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24412</v>
+      </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24413</v>
+      </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="8"/>
+      <c r="B57" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24415</v>
+      </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="8"/>
+      <c r="B58" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1840</v>
+      </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23641</v>
+      </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="8"/>
+      <c r="B60" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1840</v>
+      </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="8"/>
+      <c r="B61" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/24693</v>
+      </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="8"/>
+      <c r="B62" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="8"/>
+      <c r="B63" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23698</v>
+      </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="8"/>
+      <c r="B64" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1834</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="B65" s="8"/>
+      <c r="B65" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23809</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="B66" s="8"/>
+      <c r="B66" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="B67" s="8"/>
+      <c r="B67" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23818</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23622</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="B69" s="8"/>
+      <c r="B69" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23787</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/1834</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="B71" s="8"/>
+      <c r="B71" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23681</v>
+      </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="B72" s="8"/>
+      <c r="B72" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="B73" s="8"/>
+      <c r="B73" s="8" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23734</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="9" t="str">
+        <v>https://www.sspa.juntadeandalucia.es/servicioandaluzdesalud/el-sas/servicios-y-centros/informacion-por-centros/23621</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
